--- a/21.xlsx
+++ b/21.xlsx
@@ -2175,7 +2175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2186,6 +2186,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2222,10 +2228,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2582,7 +2588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>307</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>347</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>337</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>262</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2785,7 +2791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2843,7 +2849,7 @@
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>409</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -2988,7 +2994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>272</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
